--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45174</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44266</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45475</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>45158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45840.46792824074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45604.4624537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>45195</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>44859</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>44833</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45517.34768518519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>45404.55137731481</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45604.48800925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45826.4996875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>45889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>45930</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44937</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45103</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45604.53089120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>46051</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44939</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45450.57783564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44295</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44827</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45335</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>45688.41431712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>45623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45820.48319444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45825</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45897</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44663</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45926.56731481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45931.6134837963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>45941.46940972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>45930</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45789.61961805556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45982</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>46031.37709490741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44550</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>46051.59083333334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45688.59202546296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44950</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44998</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44243</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44270.56321759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44267.64171296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44320.42899305555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>44386</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>44386</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44865.57608796296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44307.45770833334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44887.42784722222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44887.42950231482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44524.32766203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44613.65383101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44483.4240625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44285</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44242</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44574.4577662037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44536</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44456</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44273</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44461.68690972222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44812.51043981482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44319.33803240741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44734.36189814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44859</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44574.45553240741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44265.69087962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>44278</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>44676.551875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>44859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44574.43967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44580</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44602.57726851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44308</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44430.93283564815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44795.48144675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44757.40570601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44588.6396875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44887.43138888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44505</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44456</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44434</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44845</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>44270.5584375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44364</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44552.45563657407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44483.66988425926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44483.67144675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44503</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44510</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44376</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44803.35861111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44887.42521990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44343.88627314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44610</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44375</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44795.60174768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44795.60293981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>44328.41473379629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44242</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44582</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44757</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44285.87041666666</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44601.75174768519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44858.49122685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44711.38366898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44522.60883101852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44253</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44336.39239583333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44837.43361111111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44859</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44607</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44607</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44887.42283564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44887.42663194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44490.74336805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44676.56075231481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44250</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44475.66188657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44574</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44344.48678240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44420.28219907408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44603</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44602</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44524.46141203704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44690</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44721.32116898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44424.57810185185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44683.46200231482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44686</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44459</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44531</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44424.57476851852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44729.65407407407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44788.47552083333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>44705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44393</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44592.48909722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45736.32997685186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>45736.33076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45674.38413194445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45338</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>45338</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>45338.43358796297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45338</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45338</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>45156.54523148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44922.50314814815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>45229.58863425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>45098.44975694444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45770.625625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>45389</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44524</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>45181</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44610</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44285.33586805555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45089</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>45697.97704861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44250</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>45385</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44789.46129629629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45398.79873842592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45389.73820601852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45384.42409722223</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45642.47061342592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45761.93627314815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>45761</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45338</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45338.43268518519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>45118.36900462963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45428.54546296296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>45428.54791666667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>45590.39090277778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45664.57111111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45622</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44430.29293981481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>44375</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45604.26549768518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45668.63396990741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>45544.36982638889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>45471</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>45320.58873842593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>45348</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>45714.37306712963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44942.49850694444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>45408.61435185185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>45226.45565972223</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>45693</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>45745.75537037037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>45229</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44757</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>45223.60331018519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>45749.46461805556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>45749.46740740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>45720.40681712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45534</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45801.73608796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45233</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45335.63466435186</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44524</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45801.7406712963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44438</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>45887.45643518519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45887.46554398148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44497</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45245.37445601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45153</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45801.7155324074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45800.6135300926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45804</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44985</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45273.615</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45805.59104166667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45804.40983796296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44902.79445601852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45804.49788194444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45804</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45540.56981481481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>45764</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45807.45759259259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45764</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45807.45905092593</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45807.46021990741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>45889.37565972222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45889.36107638889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44278</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45889.36693287037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44459.56224537037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45811.59519675926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45278.39707175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>45891.49476851852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45891.49868055555</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>45348.33475694444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>45692</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45709.39515046297</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45709.40043981482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45709.39714120371</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45041.59671296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45041</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45894.59266203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44924.79619212963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44392.68070601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45897.44971064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45400</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45897</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45897.34547453704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45469.34783564815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45670.3792824074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45897</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45897.35350694445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45901.44929398148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45440.63173611111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45338.43309027778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45901.57252314815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45622</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45818</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45898.39543981481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45777.45011574074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45819.32747685185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45901.31172453704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44924.77766203704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>45901.55628472222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>45901.31505787037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>45174.34193287037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45819.46775462963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45757.34662037037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45191</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45428.55199074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45428.57160879629</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45840.66209490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45902.78745370371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44858</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45567.53571759259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45902.56516203703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45824.48737268519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45825.40163194444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45905.62797453703</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45904.48038194444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45825.58365740741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>45831.51181712963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>45801.72324074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45644.36364583333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45838.37465277778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45908.51197916667</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45825.46516203704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45908.39239583333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45910.50434027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44984</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45757</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45910.6044212963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45910.6277662037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45910.63862268518</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44984</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45459.71376157407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45428.5499537037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45369.42203703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45915.54190972223</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45915.54486111111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45826.49353009259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45082.56950231481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45085.53467592593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>44945.39559027777</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>45826.37920138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45604.56769675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45826.50130787037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45230</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>45826.50511574074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45831.36230324074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45831.37613425926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45385.44706018519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>45831.37420138889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45831</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45636.96761574074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45831.5818287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44734.3744212963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44734.37710648148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45583.40994212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45336.92125</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44942</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44942.60704861111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45881.55119212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45832.47321759259</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45922.34789351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>45923.58040509259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>45923.39356481482</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45923.71457175926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45677.70096064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45164</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45923.37464120371</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45923.70304398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45923.57438657407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45230.37582175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45925.64894675926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45107.61413194444</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45839</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45839</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>45926.34652777778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45835.37094907407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45163.72633101852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45926.34913194444</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>45926.40893518519</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>45835.48375</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44951</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45770</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>45930</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>45547.62391203704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>45547.62475694445</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45838.67675925926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45930</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45763.68868055556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45763.69137731481</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45930</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45930</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45930</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45930</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45930</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45930</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45839</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45688.58755787037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45933.58689814815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45093</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45839.58087962963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44917.58131944444</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45838.6196875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>45932.36827546296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>45933.41378472222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45428.54854166666</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>45428.54914351852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>45428.58675925926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>45841.74796296296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45716.3528125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45934.26534722222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45934.28383101852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45934.29163194444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45840.479375</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45934.27184027778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45934.27815972222</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>45934.28152777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44984</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45841.73791666667</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45295</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45840.49215277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44638.34265046296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44865.54231481482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45506.60435185185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>44603</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45881.4566087963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45939.49178240741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>44503.58450231481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45940.49800925926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45637.63881944444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45666</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45842.47915509259</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44757.40538194445</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>45028</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>45552.6449537037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>45552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44994.45623842593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45842.55467592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45114.65185185185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45945.46270833333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>45232.72258101852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45459.71949074074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45338</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>45338</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45854.62081018519</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>45219.79758101852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>45861.43393518519</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>45951.4234375</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>45428.55619212963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45861.42532407407</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45761.93880787037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28092,7 +28092,7 @@
         <v>45428.53776620371</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28149,7 +28149,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>45709.40560185185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>45597.34225694444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45597.38799768518</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45597.39101851852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45952.41342592592</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45842.48019675926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44711.38688657407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45865</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>45865.66577546296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>45749</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45865.67818287037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45952.73761574074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45737</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45792.81104166667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45338</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>45869.39628472222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45957.3540162037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45957.37876157407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45909</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45729.67947916667</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44659.58702546296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45013</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45873</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44971.76994212963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44971.75834490741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45579</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45211</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45205.35776620371</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44533.35804398148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45875</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45455</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45091</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45930</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45604.5687962963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44881.54231481482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45877</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45709.39251157407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>45960.66931712963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>45728</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45229.53780092593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45960.64586805556</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>45764</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45225</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45881</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45679.50844907408</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45317</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30970,7 +30970,7 @@
         <v>45041</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>45320.88226851852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31084,7 +31084,7 @@
         <v>45146</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>45967.45761574074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>45357.39202546296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45968.29605324074</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45716.33921296296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>45716.35056712963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45971.68423611111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45341.58440972222</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>45972.43155092592</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31612,7 +31612,7 @@
         <v>45233</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31669,7 +31669,7 @@
         <v>45973.51638888889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31726,7 +31726,7 @@
         <v>45972</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>45973.32503472222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>44470</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45279.37215277777</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45349</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>45887.5765625</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>45538.80545138889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>45389</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44757.40103009259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         <v>45118</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>45974.34333333333</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44446</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>45229.49331018519</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>45688.43215277778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44602.51873842593</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>45720.41747685185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>45273.60899305555</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45273</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44887</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>45204</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>45385.49137731481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45112.3402199074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45685.55012731482</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45085</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45208.64244212963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44410</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>44882</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45407.5766087963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45979.44793981482</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45979.44890046296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45154.65458333334</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45979.43940972222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45530.36846064815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45607.37846064815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45981.58539351852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45981.60552083333</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45981.60769675926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33969,7 +33969,7 @@
         <v>45981.60837962963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45012</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>44375</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45981.58383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45981.58982638889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45981.59340277778</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45642</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45324.40112268519</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>44946</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34502,7 +34502,7 @@
         <v>45204.42494212963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         <v>45085</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>45428.57578703704</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34673,7 +34673,7 @@
         <v>45982.49903935185</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34730,7 +34730,7 @@
         <v>45604.48289351852</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>45369.44256944444</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>46027.59738425926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>45985.39280092593</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>45985.63768518518</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35020,7 +35020,7 @@
         <v>46027.599375</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35077,7 +35077,7 @@
         <v>45985.390625</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35134,7 +35134,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>44595.55912037037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44757.39927083333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>44757.40454861111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45941.47780092592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>46029.70577546296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>46029.70104166667</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45001</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>46029.43957175926</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>46029.43753472222</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>45987.56385416666</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>45264.6516087963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>45561.3744212963</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>45722.40604166667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>45604.56101851852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>45604.56623842593</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45604.56958333333</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45973.31868055555</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>45989.47579861111</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>45941.47877314815</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>45288.46611111111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>45764.67251157408</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>45747</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>45747</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36547,7 +36547,7 @@
         <v>45989.37517361111</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36604,7 +36604,7 @@
         <v>46030.43436342593</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36661,7 +36661,7 @@
         <v>45988.67298611111</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>46031.71200231482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>45366</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>46031.37173611111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>45190.39688657408</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>45427.93607638889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>45428.55946759259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>45973.32129629629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44524.66444444445</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>45597.38953703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37303,7 +37303,7 @@
         <v>45428.5703587963</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>45428.57371527778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>45960.64515046297</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>45597.3521412037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>46034.46232638889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>46033.95969907408</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>45960.6469212963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>45009</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45275.35230324074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>45995.67541666667</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>45708.35037037037</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>45709.40309027778</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38007,7 +38007,7 @@
         <v>45995.59886574074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38064,7 +38064,7 @@
         <v>44697</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44897.42872685185</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>45995</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>45607.60341435186</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45995.31268518518</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38359,7 +38359,7 @@
         <v>45999.6527199074</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44915.41944444444</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44790</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>45320</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45454.73359953704</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>45590</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>45775.49840277778</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>45057</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>46040.75733796296</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>45610.35752314814</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38934,7 +38934,7 @@
         <v>45996.51903935185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38991,7 +38991,7 @@
         <v>45995</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39048,7 +39048,7 @@
         <v>45404</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
         <v>46000.85388888889</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         <v>45165.77501157407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>46000.85453703703</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45336</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>46041.77224537037</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45722.96171296296</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>45755.41075231481</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
         <v>45568</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39566,7 +39566,7 @@
         <v>45391.58608796296</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39623,7 +39623,7 @@
         <v>44400</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39680,7 +39680,7 @@
         <v>46001.64959490741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39737,7 +39737,7 @@
         <v>45475</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39794,7 +39794,7 @@
         <v>45639.59918981481</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39851,7 +39851,7 @@
         <v>45642.46802083333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39913,7 +39913,7 @@
         <v>46045.45460648148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39970,7 +39970,7 @@
         <v>46002.56247685185</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40032,7 +40032,7 @@
         <v>45688.63835648148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
         <v>45709.38243055555</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>46002.33796296296</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44308</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>44523.4103587963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45279.61047453704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>44327</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>46002.55832175926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45069.69295138889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45440.6484375</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>46006.58917824074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>46007.4960300926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>46048.55508101852</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>46048.55671296296</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>45181</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45389.74396990741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45190.47119212963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>46009.70887731481</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45764</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41140,7 +41140,7 @@
         <v>46009.70274305555</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41197,7 +41197,7 @@
         <v>45575.84530092592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41254,7 +41254,7 @@
         <v>46009</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
         <v>46050.62579861111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44468.65578703704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44468.68219907407</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>46052.57960648148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>46052.35818287037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41611,7 +41611,7 @@
         <v>46052.33907407407</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>46052.31791666667</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45709.42712962963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>46010</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>46055.45271990741</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45098</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>46013.52415509259</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>46050.67314814815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>46052.32192129629</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>46013.51875</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>46052.35028935185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>46052.36130787037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42335,7 +42335,7 @@
         <v>45019</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42392,7 +42392,7 @@
         <v>45140</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>45769.41568287037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42506,7 +42506,7 @@
         <v>44369.46261574074</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>46057.71226851852</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>44496</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45155</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45506.59847222222</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>46058.41280092593</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42853,7 +42853,7 @@
         <v>45350</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45348</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42967,7 +42967,7 @@
         <v>46058.59554398148</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43024,7 +43024,7 @@
         <v>45434.44790509259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>44552.46184027778</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45629.38060185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43200,7 +43200,7 @@
         <v>44971.76626157408</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43257,7 +43257,7 @@
         <v>44757.40493055555</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43319,7 +43319,7 @@
         <v>46058.40996527778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43381,7 +43381,7 @@
         <v>45049</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45140</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45308</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45691.56284722222</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43609,7 +43609,7 @@
         <v>45105.47802083333</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         <v>45474.36921296296</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>45093.34891203704</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45595.77847222222</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43837,7 +43837,7 @@
         <v>45174</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>45547.6262037037</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43951,7 +43951,7 @@
         <v>45547.62703703704</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>45355.56142361111</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45400</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44127,7 +44127,7 @@
         <v>45149</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45615</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44241,7 +44241,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44298,7 +44298,7 @@
         <v>45113.36457175926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44355,7 +44355,7 @@
         <v>45117</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
         <v>45579</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44474,7 +44474,7 @@
         <v>45351</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44531,7 +44531,7 @@
         <v>45642.47158564815</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44593,7 +44593,7 @@
         <v>45706.36192129629</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44650,7 +44650,7 @@
         <v>45734</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44707,7 +44707,7 @@
         <v>45435.77655092593</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44769,7 +44769,7 @@
         <v>45224</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44831,7 +44831,7 @@
         <v>45211.81873842593</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         <v>45154.57079861111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>45162</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45547.62819444444</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45164</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45596.54981481482</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45615</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45230,7 +45230,7 @@
         <v>45375</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45287,7 +45287,7 @@
         <v>45597.35365740741</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45349,7 +45349,7 @@
         <v>44354</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45406,7 +45406,7 @@
         <v>45454.73629629629</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45463,7 +45463,7 @@
         <v>44858</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45520,7 +45520,7 @@
         <v>45404.56375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45577,7 +45577,7 @@
         <v>45709.38748842593</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45639,7 +45639,7 @@
         <v>45709.42873842592</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45701,7 +45701,7 @@
         <v>45476</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45758,7 +45758,7 @@
         <v>44592.72989583333</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45815,7 +45815,7 @@
         <v>45546.60894675926</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45872,7 +45872,7 @@
         <v>45082</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45929,7 +45929,7 @@
         <v>45604.56190972222</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45604.56427083333</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>45604.56517361111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46115,7 +46115,7 @@
         <v>44838</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>45204</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46229,7 +46229,7 @@
         <v>45692.42515046296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46286,7 +46286,7 @@
         <v>45568</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45568</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46410,7 +46410,7 @@
         <v>45091</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>45118</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>45005</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>45692</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45705.35732638889</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46705,7 +46705,7 @@
         <v>44994.45271990741</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46762,7 +46762,7 @@
         <v>44396</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         <v>45219.44987268518</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46876,7 +46876,7 @@
         <v>45370.64554398148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46933,7 +46933,7 @@
         <v>45434.56020833334</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46990,7 +46990,7 @@
         <v>45709.40761574074</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>45770</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47109,7 +47109,7 @@
         <v>45223</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>45372.49736111111</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>45547.62553240741</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>45201.50586805555</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>45184.46447916667</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45211</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44923</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>45103</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45261</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45204</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45338</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>44844.67142361111</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45590.38761574074</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47860,7 +47860,7 @@
         <v>45218</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47917,7 +47917,7 @@
         <v>45028</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45105.48627314815</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45386.35322916666</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>45688.58667824074</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48160,7 +48160,7 @@
         <v>45544.33987268519</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>45155</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>45749</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48336,7 +48336,7 @@
         <v>45709.32859953704</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48398,7 +48398,7 @@
         <v>45354.72975694444</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48455,7 +48455,7 @@
         <v>45243</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>44844</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44406</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         <v>44908</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>45372.49458333333</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>45196.47457175926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>45755</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>44833</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45244.86136574074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>45063.27048611111</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>45245.7939699074</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>45692</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         <v>44260</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49206,7 +49206,7 @@
         <v>45597.34881944444</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>45260.46252314815</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>44592.50912037037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>44593</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45600.45402777778</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>45230</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49558,7 +49558,7 @@
         <v>45075.50622685185</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49615,7 +49615,7 @@
         <v>45660</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49672,7 +49672,7 @@
         <v>45688</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49734,7 +49734,7 @@
         <v>45688.64506944444</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49796,7 +49796,7 @@
         <v>44939</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49853,7 +49853,7 @@
         <v>45692</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49910,7 +49910,7 @@
         <v>45702.36793981482</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49967,7 +49967,7 @@
         <v>45755</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50024,7 +50024,7 @@
         <v>45338</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>44937</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>44937.46436342593</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45195</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>44361.93059027778</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45146</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45146</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45716.34958333334</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45460.82011574074</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>45561.37106481481</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>45764</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>45764.84103009259</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44593.63554398148</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>45181</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50847,7 +50847,7 @@
         <v>45770.62311342593</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>45674.38553240741</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50966,7 +50966,7 @@
         <v>45279</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51023,7 +51023,7 @@
         <v>45153</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51080,7 +51080,7 @@
         <v>45244.67376157407</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51137,7 +51137,7 @@
         <v>45154.56967592592</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51194,7 +51194,7 @@
         <v>45335.63689814815</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51256,7 +51256,7 @@
         <v>44998.55319444444</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51333,7 +51333,7 @@
         <v>45057</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51390,7 +51390,7 @@
         <v>45427.9417824074</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51447,7 +51447,7 @@
         <v>44610</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51504,7 +51504,7 @@
         <v>45649.6427662037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51561,7 +51561,7 @@
         <v>44998</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51623,7 +51623,7 @@
         <v>45489.50666666667</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51680,7 +51680,7 @@
         <v>44496.58679398148</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51737,7 +51737,7 @@
         <v>45600.47440972222</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51794,7 +51794,7 @@
         <v>45709.33226851852</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51856,7 +51856,7 @@
         <v>45601</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51913,7 +51913,7 @@
         <v>45517.38890046296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51970,7 +51970,7 @@
         <v>45273</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52027,7 +52027,7 @@
         <v>45391.59185185185</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52084,7 +52084,7 @@
         <v>45516.37174768518</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52141,7 +52141,7 @@
         <v>44526</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52203,7 +52203,7 @@
         <v>45716.34217592593</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52265,7 +52265,7 @@
         <v>45716.34775462963</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52327,7 +52327,7 @@
         <v>45716.34298611111</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         <v>45783.47896990741</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52446,7 +52446,7 @@
         <v>45476.50758101852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52503,7 +52503,7 @@
         <v>45502.49574074074</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52565,7 +52565,7 @@
         <v>45488.46717592593</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52622,7 +52622,7 @@
         <v>45786</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52679,7 +52679,7 @@
         <v>45604.44618055555</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52736,7 +52736,7 @@
         <v>45552.65006944445</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52793,7 +52793,7 @@
         <v>45742</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52850,7 +52850,7 @@
         <v>45783</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52907,7 +52907,7 @@
         <v>45728.59358796296</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45174</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44266</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45475</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>45158</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45840.46792824074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45930</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45604.4624537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>45195</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>44859</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>44833</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45517.34768518519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>45404.55137731481</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45604.48800925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45826.4996875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>45889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>45930</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44937</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45103</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45604.53089120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>46051</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44939</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45450.57783564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44295</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44827</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45335</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>45688.41431712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>45623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45820.48319444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45825</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45897</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44663</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45926.56731481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45931.6134837963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>45941.46940972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>45930</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45789.61961805556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45982</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>46031.37709490741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44550</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>46051.59083333334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45688.59202546296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44950</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>44998</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44243</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44270.56321759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44267.64171296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44320.42899305555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>44386</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>44386</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44865.57608796296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44307.45770833334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44887.42784722222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44887.42950231482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44524.32766203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44613.65383101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44483.4240625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44285</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44242</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44574.4577662037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44487</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44536</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44456</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44273</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44461.68690972222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44812.51043981482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44319.33803240741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44734.36189814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44859</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44574.45553240741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44265.69087962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>44278</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>44676.551875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>44859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44574.43967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44580</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44602.57726851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44308</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44430.93283564815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44795.48144675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44757.40570601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44588.6396875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44887.43138888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44505</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44456</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44434</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44845</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>44270.5584375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44364</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44552.45563657407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44483.66988425926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44483.67144675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44503</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44510</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44376</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44803.35861111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44887.42521990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44343.88627314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44610</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44609</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44375</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44795.60174768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44795.60293981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>44328.41473379629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44242</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44582</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44757</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44285.87041666666</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44601.75174768519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44858.49122685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44711.38366898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44522.60883101852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44253</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44336.39239583333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44837.43361111111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44859</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44607</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44607</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44887.42283564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44887.42663194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44490.74336805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44676.56075231481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44250</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44475.66188657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44574</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44344.48678240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44420.28219907408</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44603</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44602</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44524.46141203704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44690</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44721.32116898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44424.57810185185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44683.46200231482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44686</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44459</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44531</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44424.57476851852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44729.65407407407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44788.47552083333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>44705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44393</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44592.48909722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45736.32997685186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>45736.33076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45674.38413194445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45338</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>45338</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>45338.43358796297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45338</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45338</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>45156.54523148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44922.50314814815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>45229.58863425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>45098.44975694444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45770.625625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>45389</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44524</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>45181</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44610</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44285.33586805555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45089</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>45697.97704861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44250</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>45385</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44789.46129629629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45398.79873842592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45389.73820601852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45384.42409722223</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45642.47061342592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45761.93627314815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>45761</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45338</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45338.43268518519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>45118.36900462963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45428.54546296296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>45428.54791666667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>45590.39090277778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>45664.57111111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45622</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44430.29293981481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>44375</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45604.26549768518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45668.63396990741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>45544.36982638889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>45471</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>45320.58873842593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>45348</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>45714.37306712963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>44942.49850694444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>45408.61435185185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>45226.45565972223</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>45693</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>45745.75537037037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>45229</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44757</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>45223.60331018519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>45749.46461805556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>45749.46740740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>45720.40681712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45534</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45801.73608796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45233</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45335.63466435186</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44524</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45801.7406712963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44438</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>45887.45643518519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45887.46554398148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44497</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45245.37445601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45153</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45801.7155324074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45800.6135300926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45804</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44985</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45273.615</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45805.59104166667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45804.40983796296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44902.79445601852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45804.49788194444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45804</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45540.56981481481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>45764</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45807.45759259259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45764</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45807.45905092593</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45807.46021990741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>45889.37565972222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45889.36107638889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44278</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45889.36693287037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44459.56224537037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45811.59519675926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45278.39707175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>45891.49476851852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45891.49868055555</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>45348.33475694444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>45692</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45709.39515046297</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45709.40043981482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45709.39714120371</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45041.59671296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45041</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45894.59266203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44924.79619212963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44392.68070601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45897.44971064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45400</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45897</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45897.34547453704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45469.34783564815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45670.3792824074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45897</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45897.35350694445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45901.44929398148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45440.63173611111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45338.43309027778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45901.57252314815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45622</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45818</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45898.39543981481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45777.45011574074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45819.32747685185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45901.31172453704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44924.77766203704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>45901.55628472222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>45901.31505787037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>45174.34193287037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45819.46775462963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45757.34662037037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45191</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45428.55199074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45428.57160879629</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45840.66209490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45902.78745370371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44858</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45567.53571759259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45902.56516203703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45824.48737268519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45825.40163194444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45905.62797453703</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45904.48038194444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45825.58365740741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>45831.51181712963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>45801.72324074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45644.36364583333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45838.37465277778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45908.51197916667</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45825.46516203704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45908.39239583333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45910.50434027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44984</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45757</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45910.6044212963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45910.6277662037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45910.63862268518</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44984</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45459.71376157407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45428.5499537037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45369.42203703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45915.54190972223</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45915.54486111111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45826.49353009259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45082.56950231481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45085.53467592593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>44945.39559027777</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>45826.37920138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45604.56769675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45826.50130787037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45230</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>45826.50511574074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45831.36230324074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45831.37613425926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45385.44706018519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>45831.37420138889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45831</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45636.96761574074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45831.5818287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44734.3744212963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44734.37710648148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45583.40994212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45336.92125</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44942</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44942.60704861111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45881.55119212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45832.47321759259</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45922.34789351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>45923.58040509259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>45923.39356481482</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45923.71457175926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45677.70096064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45164</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45923.37464120371</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45923.70304398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45923.57438657407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45230.37582175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45925.64894675926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45107.61413194444</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45839</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45839</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>45926.34652777778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45835.37094907407</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45163.72633101852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45926.34913194444</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>45926.40893518519</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>45835.48375</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44951</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45770</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>45930</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>45547.62391203704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>45547.62475694445</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45838.67675925926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45930</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45763.68868055556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45763.69137731481</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45930</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45930</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45930</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45930</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45930</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45930</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45839</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45688.58755787037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45933.58689814815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45093</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45839.58087962963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44917.58131944444</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45838.6196875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>45932.36827546296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>45933.41378472222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45428.54854166666</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>45428.54914351852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>45428.58675925926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>45841.74796296296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45716.3528125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45934.26534722222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45934.28383101852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45934.29163194444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45840.479375</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45934.27184027778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45934.27815972222</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>45934.28152777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44984</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45841.73791666667</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45295</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45840.49215277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44638.34265046296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44865.54231481482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45506.60435185185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>44603</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45881.4566087963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45939.49178240741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>44503.58450231481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45940.49800925926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45637.63881944444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45666</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45842.47915509259</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44757.40538194445</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>45028</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>45552.6449537037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>45552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44994.45623842593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>45842.55467592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45114.65185185185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45945.46270833333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>45232.72258101852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45459.71949074074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>45338</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>45338</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45854.62081018519</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>45219.79758101852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>45861.43393518519</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>45951.4234375</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>45428.55619212963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45861.42532407407</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45761.93880787037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28092,7 +28092,7 @@
         <v>45428.53776620371</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28149,7 +28149,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>45709.40560185185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>45597.34225694444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45597.38799768518</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45597.39101851852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45952.41342592592</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45842.48019675926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44711.38688657407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45865</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>45865.66577546296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>45749</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45865.67818287037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45952.73761574074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45737</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45792.81104166667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45338</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>45869.39628472222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45957.3540162037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45957.37876157407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45909</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45729.67947916667</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44659.58702546296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45013</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45873</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44971.76994212963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44971.75834490741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45579</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45211</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45205.35776620371</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44533.35804398148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45875</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45455</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45091</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45930</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45604.5687962963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44881.54231481482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45877</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45709.39251157407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>45960.66931712963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>45728</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45229.53780092593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45960.64586805556</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>45764</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45225</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45881</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45679.50844907408</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45317</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30970,7 +30970,7 @@
         <v>45041</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>45320.88226851852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31084,7 +31084,7 @@
         <v>45146</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>45967.45761574074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>45357.39202546296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45968.29605324074</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45716.33921296296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>45716.35056712963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45971.68423611111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45341.58440972222</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>45972.43155092592</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31612,7 +31612,7 @@
         <v>45233</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31669,7 +31669,7 @@
         <v>45973.51638888889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31726,7 +31726,7 @@
         <v>45972</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>45973.32503472222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>44470</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45279.37215277777</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45349</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>45887.5765625</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>45538.80545138889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>45389</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>44757.40103009259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         <v>45118</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>45974.34333333333</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44446</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>45229.49331018519</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>45688.43215277778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44602.51873842593</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>45720.41747685185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>45273.60899305555</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45273</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44887</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>45204</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>45385.49137731481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>45112.3402199074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45685.55012731482</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45085</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45208.64244212963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44410</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>44882</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45407.5766087963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45979.44793981482</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45979.44890046296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45154.65458333334</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45979.43940972222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45530.36846064815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45607.37846064815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45981.58539351852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45981.60552083333</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45981.60769675926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33969,7 +33969,7 @@
         <v>45981.60837962963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45012</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>44375</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45981.58383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45981.58982638889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45981.59340277778</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45642</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45324.40112268519</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>44946</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34502,7 +34502,7 @@
         <v>45204.42494212963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         <v>45085</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>45428.57578703704</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34673,7 +34673,7 @@
         <v>45982.49903935185</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34730,7 +34730,7 @@
         <v>45604.48289351852</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>45369.44256944444</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>46027.59738425926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>45985.39280092593</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>45985.63768518518</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35020,7 +35020,7 @@
         <v>46027.599375</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35077,7 +35077,7 @@
         <v>45985.390625</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35134,7 +35134,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>44595.55912037037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44757.39927083333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>44757.40454861111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45941.47780092592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>46029.70577546296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>46029.70104166667</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45001</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>46029.43957175926</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>46029.43753472222</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>45987.56385416666</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>45264.6516087963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>45561.3744212963</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>45722.40604166667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>45604.56101851852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>45604.56623842593</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45604.56958333333</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45973.31868055555</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>45989.47579861111</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>45941.47877314815</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>45288.46611111111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>45764.67251157408</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>45747</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36490,7 +36490,7 @@
         <v>45747</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36547,7 +36547,7 @@
         <v>45989.37517361111</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36604,7 +36604,7 @@
         <v>46030.43436342593</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36661,7 +36661,7 @@
         <v>45988.67298611111</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>46031.71200231482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>45366</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>46031.37173611111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>45190.39688657408</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36956,7 +36956,7 @@
         <v>45427.93607638889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>45428.55946759259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>45973.32129629629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>44524.66444444445</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>45597.38953703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37303,7 +37303,7 @@
         <v>45428.5703587963</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37360,7 +37360,7 @@
         <v>45428.57371527778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37417,7 +37417,7 @@
         <v>45960.64515046297</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>45597.3521412037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>46034.46232638889</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>46033.95969907408</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>45960.6469212963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>45009</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45275.35230324074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>45995.67541666667</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>45708.35037037037</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
         <v>45709.40309027778</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38007,7 +38007,7 @@
         <v>45995.59886574074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38064,7 +38064,7 @@
         <v>44697</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44897.42872685185</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>45995</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>45607.60341435186</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45995.31268518518</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38359,7 +38359,7 @@
         <v>45999.6527199074</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44915.41944444444</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44790</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>45320</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45454.73359953704</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>45590</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>45775.49840277778</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>45057</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>46040.75733796296</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>45610.35752314814</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38934,7 +38934,7 @@
         <v>45996.51903935185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38991,7 +38991,7 @@
         <v>45995</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39048,7 +39048,7 @@
         <v>45404</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
         <v>46000.85388888889</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         <v>45165.77501157407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>46000.85453703703</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45336</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>46041.77224537037</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45722.96171296296</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>45755.41075231481</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
         <v>45568</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39566,7 +39566,7 @@
         <v>45391.58608796296</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39623,7 +39623,7 @@
         <v>44400</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39680,7 +39680,7 @@
         <v>46001.64959490741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39737,7 +39737,7 @@
         <v>45475</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39794,7 +39794,7 @@
         <v>45639.59918981481</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39851,7 +39851,7 @@
         <v>45642.46802083333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39913,7 +39913,7 @@
         <v>46045.45460648148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39970,7 +39970,7 @@
         <v>46002.56247685185</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40032,7 +40032,7 @@
         <v>45688.63835648148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
         <v>45709.38243055555</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>46002.33796296296</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44308</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>44523.4103587963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45279.61047453704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>44327</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>46002.55832175926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45069.69295138889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45440.6484375</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>46006.58917824074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>46007.4960300926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>46048.55508101852</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>46048.55671296296</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>45181</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         <v>45389.74396990741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>45190.47119212963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
         <v>46009.70887731481</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41078,7 +41078,7 @@
         <v>45764</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41140,7 +41140,7 @@
         <v>46009.70274305555</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41197,7 +41197,7 @@
         <v>45575.84530092592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41254,7 +41254,7 @@
         <v>46009</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
         <v>46050.62579861111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44468.65578703704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>44468.68219907407</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>46052.57960648148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>46052.35818287037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41611,7 +41611,7 @@
         <v>46052.33907407407</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>46052.31791666667</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45709.42712962963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>46010</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>46055.45271990741</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45098</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>46013.52415509259</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>46050.67314814815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>46052.32192129629</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>46013.51875</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>46052.35028935185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>46052.36130787037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42335,7 +42335,7 @@
         <v>45019</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42392,7 +42392,7 @@
         <v>45140</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>45769.41568287037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42506,7 +42506,7 @@
         <v>44369.46261574074</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>46057.71226851852</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>44496</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45155</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45506.59847222222</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>46058.41280092593</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42853,7 +42853,7 @@
         <v>45350</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45348</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42967,7 +42967,7 @@
         <v>46058.59554398148</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43024,7 +43024,7 @@
         <v>45434.44790509259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>44552.46184027778</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45629.38060185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43200,7 +43200,7 @@
         <v>44971.76626157408</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43257,7 +43257,7 @@
         <v>44757.40493055555</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43319,7 +43319,7 @@
         <v>46058.40996527778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43381,7 +43381,7 @@
         <v>45049</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45140</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45308</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45691.56284722222</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43609,7 +43609,7 @@
         <v>45105.47802083333</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         <v>45474.36921296296</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>45093.34891203704</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45595.77847222222</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43837,7 +43837,7 @@
         <v>45174</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>45547.6262037037</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43951,7 +43951,7 @@
         <v>45547.62703703704</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>45355.56142361111</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45400</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44127,7 +44127,7 @@
         <v>45149</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45615</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44241,7 +44241,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44298,7 +44298,7 @@
         <v>45113.36457175926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44355,7 +44355,7 @@
         <v>45117</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
         <v>45579</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44474,7 +44474,7 @@
         <v>45351</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44531,7 +44531,7 @@
         <v>45642.47158564815</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44593,7 +44593,7 @@
         <v>45706.36192129629</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44650,7 +44650,7 @@
         <v>45734</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44707,7 +44707,7 @@
         <v>45435.77655092593</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44769,7 +44769,7 @@
         <v>45224</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44831,7 +44831,7 @@
         <v>45211.81873842593</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         <v>45154.57079861111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>45162</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45547.62819444444</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45164</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45596.54981481482</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45615</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45230,7 +45230,7 @@
         <v>45375</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45287,7 +45287,7 @@
         <v>45597.35365740741</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45349,7 +45349,7 @@
         <v>44354</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45406,7 +45406,7 @@
         <v>45454.73629629629</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45463,7 +45463,7 @@
         <v>44858</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45520,7 +45520,7 @@
         <v>45404.56375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45577,7 +45577,7 @@
         <v>45709.38748842593</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45639,7 +45639,7 @@
         <v>45709.42873842592</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45701,7 +45701,7 @@
         <v>45476</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45758,7 +45758,7 @@
         <v>44592.72989583333</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45815,7 +45815,7 @@
         <v>45546.60894675926</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45872,7 +45872,7 @@
         <v>45082</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45929,7 +45929,7 @@
         <v>45604.56190972222</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45604.56427083333</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>45604.56517361111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46115,7 +46115,7 @@
         <v>44838</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>45204</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46229,7 +46229,7 @@
         <v>45692.42515046296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46286,7 +46286,7 @@
         <v>45568</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45568</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46410,7 +46410,7 @@
         <v>45091</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46472,7 +46472,7 @@
         <v>45118</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46529,7 +46529,7 @@
         <v>45005</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46586,7 +46586,7 @@
         <v>45692</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45705.35732638889</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46705,7 +46705,7 @@
         <v>44994.45271990741</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46762,7 +46762,7 @@
         <v>44396</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         <v>45219.44987268518</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46876,7 +46876,7 @@
         <v>45370.64554398148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46933,7 +46933,7 @@
         <v>45434.56020833334</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46990,7 +46990,7 @@
         <v>45709.40761574074</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>45770</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47109,7 +47109,7 @@
         <v>45223</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>45372.49736111111</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>45547.62553240741</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>45201.50586805555</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>45184.46447916667</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45211</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44923</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>45103</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45261</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45204</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45338</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>44844.67142361111</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45590.38761574074</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47860,7 +47860,7 @@
         <v>45218</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47917,7 +47917,7 @@
         <v>45028</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45105.48627314815</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45386.35322916666</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>45688.58667824074</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48160,7 +48160,7 @@
         <v>45544.33987268519</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>45155</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>45749</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48336,7 +48336,7 @@
         <v>45709.32859953704</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48398,7 +48398,7 @@
         <v>45354.72975694444</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48455,7 +48455,7 @@
         <v>45243</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>44844</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>44406</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         <v>44908</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>45372.49458333333</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>45196.47457175926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>45755</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>44833</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45244.86136574074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>45063.27048611111</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>45245.7939699074</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>45692</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         <v>44260</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49206,7 +49206,7 @@
         <v>45597.34881944444</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>45260.46252314815</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>44592.50912037037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>44593</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45600.45402777778</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>45230</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49558,7 +49558,7 @@
         <v>45075.50622685185</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49615,7 +49615,7 @@
         <v>45660</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49672,7 +49672,7 @@
         <v>45688</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49734,7 +49734,7 @@
         <v>45688.64506944444</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49796,7 +49796,7 @@
         <v>44939</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49853,7 +49853,7 @@
         <v>45692</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49910,7 +49910,7 @@
         <v>45702.36793981482</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49967,7 +49967,7 @@
         <v>45755</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50024,7 +50024,7 @@
         <v>45338</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>44937</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>44937.46436342593</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45195</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>44361.93059027778</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45146</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45146</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45716.34958333334</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>45460.82011574074</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>45561.37106481481</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>45764</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>45764.84103009259</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>44593.63554398148</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>45181</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50847,7 +50847,7 @@
         <v>45770.62311342593</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>45674.38553240741</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50966,7 +50966,7 @@
         <v>45279</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51023,7 +51023,7 @@
         <v>45153</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51080,7 +51080,7 @@
         <v>45244.67376157407</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51137,7 +51137,7 @@
         <v>45154.56967592592</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51194,7 +51194,7 @@
         <v>45335.63689814815</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51256,7 +51256,7 @@
         <v>44998.55319444444</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51333,7 +51333,7 @@
         <v>45057</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51390,7 +51390,7 @@
         <v>45427.9417824074</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51447,7 +51447,7 @@
         <v>44610</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51504,7 +51504,7 @@
         <v>45649.6427662037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51561,7 +51561,7 @@
         <v>44998</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51623,7 +51623,7 @@
         <v>45489.50666666667</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51680,7 +51680,7 @@
         <v>44496.58679398148</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51737,7 +51737,7 @@
         <v>45600.47440972222</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51794,7 +51794,7 @@
         <v>45709.33226851852</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51856,7 +51856,7 @@
         <v>45601</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51913,7 +51913,7 @@
         <v>45517.38890046296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51970,7 +51970,7 @@
         <v>45273</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52027,7 +52027,7 @@
         <v>45391.59185185185</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52084,7 +52084,7 @@
         <v>45516.37174768518</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52141,7 +52141,7 @@
         <v>44526</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52203,7 +52203,7 @@
         <v>45716.34217592593</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52265,7 +52265,7 @@
         <v>45716.34775462963</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52327,7 +52327,7 @@
         <v>45716.34298611111</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         <v>45783.47896990741</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52446,7 +52446,7 @@
         <v>45476.50758101852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52503,7 +52503,7 @@
         <v>45502.49574074074</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52565,7 +52565,7 @@
         <v>45488.46717592593</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52622,7 +52622,7 @@
         <v>45786</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52679,7 +52679,7 @@
         <v>45604.44618055555</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52736,7 +52736,7 @@
         <v>45552.65006944445</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52793,7 +52793,7 @@
         <v>45742</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52850,7 +52850,7 @@
         <v>45783</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52907,7 +52907,7 @@
         <v>45728.59358796296</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45174</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>46066</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44266</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45475</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45313</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45158</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45840.46792824074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45604.4624537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45930</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>45195</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44455</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44859</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44833</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45517.34768518519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45404.55137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45604.48800925926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45826.4996875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44937</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>45889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45103</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45604.53089120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>46051</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44939</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>45450.57783564815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44295</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44375</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44827</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>45688.41431712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45820.48319444444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45825</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>44663</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45897</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>45926.56731481481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45931.6134837963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45941.46940972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45789.61961805556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45930</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44550</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>45982</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>46051.59083333334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45688.59202546296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>46066</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>46031.37709490741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44950</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44998</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44270.56321759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>44267.64171296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44320.42899305555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>44386</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>44386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44865.57608796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44887.42784722222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>44887.42950231482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>44307.45770833334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>44508</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44524.32766203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44613.65383101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44483.4240625</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44574.4577662037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44536</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44461.68690972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44456</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44734.36189814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44319.33803240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44812.51043981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44273</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44321</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44859</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>44574.45553240741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>44278</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44676.551875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44265.69087962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>44574.43967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44580</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44602.57726851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44308</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44430.93283564815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44795.48144675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44757.40570601852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44887.43138888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44588.6396875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44505</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44456</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44434</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44845</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44270.5584375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44364</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44552.45563657407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44503</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44483.66988425926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44483.67144675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44510</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44376</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44803.35861111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44887.42521990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44343.88627314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44610</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44375</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44795.60174768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44795.60293981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44328.41473379629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44582</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44757</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>44285.87041666666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44858.49122685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>44601.75174768519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>44711.38366898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44522.60883101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>44336.39239583333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>44253</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>44837.43361111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>44859</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>44607</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44607</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>44490.74336805556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>44887.42283564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>44887.42663194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44676.56075231481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44250</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44475.66188657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44574</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44284</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44344.48678240741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44420.28219907408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44466</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44603</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44602</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44524.46141203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44424.57810185185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44721.32116898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44683.46200231482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44686</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44459</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44531</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44424.57476851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>44729.65407407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>44788.47552083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44705</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>44602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44592.48909722222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>45674.38413194445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45736.32997685186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45736.33076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44922.50314814815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45229.58863425926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>45389</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>45338</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45338</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>45338.43358796297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45338</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45338</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45156.54523148148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44610</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45098.44975694444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45770.625625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44285.33586805555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44524</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45181</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44789.46129629629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44250</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45020</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45697.97704861111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>45384.42409722223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45398.79873842592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>45389.73820601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45642.47061342592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>45761.93627314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45428.54546296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45428.54791666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45118.36900462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45338</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45338.43268518519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45590.39090277778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>45089</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45664.57111111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>45622</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44430.29293981481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45668.63396990741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45604.26549768518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45320.58873842593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45544.36982638889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45348</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45714.37306712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44942.49850694444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>45408.61435185185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45693</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45226.45565972223</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45229</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>44757</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>45745.75537037037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45223.60331018519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>45749.46461805556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>45749.46740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>45233</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45335.63466435186</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44524</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44985</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45273.615</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45245.37445601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45153</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45471</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44278</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44566</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44459.56224537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45278.39707175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45692</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45348.33475694444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>45041.59671296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>45041</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44438</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44924.79619212963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>44392.68070601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45818</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45887.45643518519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45887.46554398148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45777.45011574074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44497</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45819.32747685185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45400</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45469.34783564815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45670.3792824074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45819.46775462963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45440.63173611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45338.43309027778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44902.79445601852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45622</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45540.56981481481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>45824.48737268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44924.77766203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>45825.40163194444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>45174.34193287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>45825.58365740741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45757.34662037037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45191</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>45889.37565972222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>45644.36364583333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>45889.36107638889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>45889.36693287037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>45825.46516203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45891.49476851852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45891.49868055555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>45826.49353009259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>45826.37920138889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>45826.50130787037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45826.50511574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>45831.36230324074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>45831.37613425926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45831.37420138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>45831</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>45831.5818287037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45894.59266203704</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44984</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>45757</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45832.47321759259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45897.44971064815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45459.71376157407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45428.5499537037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45369.42203703704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>45897</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45897.34547453704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>45897</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>45897.35350694445</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45082.56950231481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45901.44929398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45901.57252314815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45085.53467592593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44945.39559027777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>45604.56769675926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45898.39543981481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45230</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45835.37094907407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>45901.31172453704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>45901.55628472222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45385.44706018519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45901.31505787037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45835.48375</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45428.55199074074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45428.57160879629</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45840.66209490741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45902.78745370371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45567.53571759259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45838.67675925926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45902.56516203703</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45636.96761574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44734.3744212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44734.37710648148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45583.40994212963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45336.92125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44942.60704861111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45839.58087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45839</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>45838.6196875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>45905.62797453703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45904.48038194444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>45677.70096064815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45164</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45831.51181712963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45230.37582175926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>45841.74796296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>45230</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45801.72324074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45840.479375</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45838.37465277778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45841.73791666667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45908.51197916667</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>45295</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45908.39239583333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>45910.50434027778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45840.49215277778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45107.61413194444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45910.6044212963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45910.6277662037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45910.63862268518</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45666</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45842.47915509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45842.55467592592</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45114.65185185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>45915.54190972223</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45915.54486111111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45163.72633101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44951</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>45770</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>45547.62391203704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>45547.62475694445</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>45763.68868055556</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45763.69137731481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45688.58755787037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45093</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>45854.62081018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44917.58131944444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45881.55119212963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45428.54854166666</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45428.54914351852</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45428.58675925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>45861.43393518519</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>45716.3528125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>45922.34789351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>45923.58040509259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>45923.39356481482</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>45861.42532407407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>45923.71457175926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>45709.40560185185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>45923.37464120371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45923.70304398148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>45923.57438657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45842.48019675926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>45925.64894675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>45865</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>45865.66577546296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45865.67818287037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>45737</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>45792.81104166667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44638.34265046296</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>45839</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44865.54231481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>45839</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45926.34652777778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45506.60435185185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44603</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45869.39628472222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44503.58450231481</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45926.34913194444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45926.40893518519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45637.63881944444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44757.40538194445</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45930</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45552.6449537037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45552</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44994.45623842593</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45873</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45930</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45930</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         <v>45930</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45930</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45930</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45930</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45930</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>45930</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>45232.72258101852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>45933.58689814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>45877</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45459.71949074074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>45932.36827546296</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45933.41378472222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45881</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>45338</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45338</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45934.26534722222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45934.28383101852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45934.29163194444</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45934.27184027778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45934.27815972222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45934.28152777778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45219.79758101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45428.55619212963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45761.93880787037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>45428.53776620371</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>44276</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>45597.34225694444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45597.38799768518</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45597.39101851852</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44711.38688657407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45749</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44470</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45881.4566087963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45279.37215277777</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45349</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45939.49178240741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45887.5765625</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45338</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45538.80545138889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>45940.49800925926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45389</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44757.40103009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44446</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45229.49331018519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>45688.43215277778</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>44602.51873842593</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>45729.67947916667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45945.46270833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>44659.58702546296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45013</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45385.49137731481</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>45112.3402199074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45685.55012731482</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45208.64244212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44971.76994212963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44971.75834490741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45205.35776620371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>44533.35804398148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45455</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>45091</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>45604.5687962963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44881.54231481482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>45709.39251157407</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45951.4234375</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45728</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45229.53780092593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45952.41342592592</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45764</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>45225</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>45679.50844907408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>45952.73761574074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>45317</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>45041</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45320.88226851852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>45146</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45957.3540162037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45957.37876157407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45357.39202546296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45909</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45716.33921296296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30761,7 +30761,7 @@
         <v>45716.35056712963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45341.58440972222</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45233</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45930</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>45930</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45960.66931712963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45118</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45960.64586805556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45720.41747685185</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45273.60899305555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>45273</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44887</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45204</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45085</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44410</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>44882</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45407.5766087963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>45154.65458333334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31874,7 +31874,7 @@
         <v>45530.36846064815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31931,7 +31931,7 @@
         <v>45607.37846064815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>45967.45761574074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32045,7 +32045,7 @@
         <v>45012</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32102,7 +32102,7 @@
         <v>45968.29605324074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44375</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>45642</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>45324.40112268519</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44946</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>45204.42494212963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>45971.68423611111</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45085</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45428.57578703704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45972.43155092592</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>45604.48289351852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45369.44256944444</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45973.51638888889</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45972</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45973.32503472222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44599</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45974.34333333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44595.55912037037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44757.39927083333</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44757.40454861111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45979.44793981482</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45979.44890046296</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45979.43940972222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45001</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45264.6516087963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45561.3744212963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45722.40604166667</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45604.56101851852</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>45604.56623842593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45604.56958333333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45288.46611111111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45981.58539351852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45764.67251157408</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45981.60552083333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>45981.60769675926</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>45981.60837962963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45981.58383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45981.58982638889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45747</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45981.59340277778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34457,7 +34457,7 @@
         <v>45747</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>45982.49903935185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>45190.39688657408</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>45427.93607638889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>45428.55946759259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>45985.39280092593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34799,7 +34799,7 @@
         <v>45985.63768518518</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34856,7 +34856,7 @@
         <v>45146</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>44524.66444444445</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45985.390625</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45428.5703587963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45428.57371527778</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>45941.47780092592</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45987.56385416666</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45973.31868055555</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45009</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>45989.47579861111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45941.47877314815</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45275.35230324074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45989.37517361111</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45988.67298611111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45366</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35721,7 +35721,7 @@
         <v>45708.35037037037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>45709.40309027778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>45973.32129629629</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>44697</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44897.42872685185</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>45607.60341435186</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>45597.38953703704</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45960.64515046297</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45597.3521412037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>46034.46232638889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>46033.95969907408</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>45960.6469212963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45995.67541666667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44915.41944444444</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45320</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>45454.73359953704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>45590</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>45995.59886574074</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>45775.49840277778</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>45057</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36953,7 +36953,7 @@
         <v>45995</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>45995.31268518518</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45610.35752314814</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45999.6527199074</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45404</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45165.77501157407</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>46040.75733796296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45336</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45996.51903935185</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45722.96171296296</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45755.41075231481</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45568</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45995</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>45391.58608796296</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>44400</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37818,7 +37818,7 @@
         <v>46000.85388888889</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37875,7 +37875,7 @@
         <v>45475</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>46000.85453703703</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45639.59918981481</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38046,7 +38046,7 @@
         <v>45642.46802083333</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>46041.77224537037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>45688.63835648148</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38227,7 +38227,7 @@
         <v>45709.38243055555</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38289,7 +38289,7 @@
         <v>44308</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>46001.64959490741</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38403,7 +38403,7 @@
         <v>44523.4103587963</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38460,7 +38460,7 @@
         <v>45279.61047453704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>44327</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38574,7 +38574,7 @@
         <v>46045.45460648148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38631,7 +38631,7 @@
         <v>46002.56247685185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>46002.33796296296</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45069.69295138889</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>45440.6484375</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>46002.55832175926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>45181</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>45389.74396990741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>46006.58917824074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>45190.47119212963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>45764</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45575.84530092592</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>46007.4960300926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>46048.55508101852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>46048.55671296296</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>44468.65578703704</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>44468.68219907407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>46009.70887731481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>46009.70274305555</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45709.42712962963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>45098</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>46009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39858,7 +39858,7 @@
         <v>46050.62579861111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45019</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46052.57960648148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46052.35818287037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40096,7 +40096,7 @@
         <v>46052.33907407407</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>46052.31791666667</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>46010</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>46055.45271990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45140</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>46013.52415509259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>46050.67314814815</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>46052.32192129629</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>46013.51875</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>45769.41568287037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46052.35028935185</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>46052.36130787037</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44369.46261574074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44496</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>45155</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45506.59847222222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>45350</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45348</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>46057.71226851852</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41214,7 +41214,7 @@
         <v>45434.44790509259</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41271,7 +41271,7 @@
         <v>44552.46184027778</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45629.38060185185</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41390,7 +41390,7 @@
         <v>44971.76626157408</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41447,7 +41447,7 @@
         <v>46058.41280092593</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>46058.59554398148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>44757.40493055555</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>46058.40996527778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45049</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45140</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45308</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45691.56284722222</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>46062.65396990741</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45105.47802083333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45474.36921296296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42089,7 +42089,7 @@
         <v>45093.34891203704</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         <v>45595.77847222222</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42203,7 +42203,7 @@
         <v>45174</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42260,7 +42260,7 @@
         <v>46065.45155092593</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42317,7 +42317,7 @@
         <v>45547.6262037037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42374,7 +42374,7 @@
         <v>45547.62703703704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42431,7 +42431,7 @@
         <v>46065.43212962963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42488,7 +42488,7 @@
         <v>45355.56142361111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42545,7 +42545,7 @@
         <v>45400</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42607,7 +42607,7 @@
         <v>45149</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42664,7 +42664,7 @@
         <v>46027.59738425926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42721,7 +42721,7 @@
         <v>45615</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42778,7 +42778,7 @@
         <v>45085</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42835,7 +42835,7 @@
         <v>45113.36457175926</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45117</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42949,7 +42949,7 @@
         <v>45579</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43011,7 +43011,7 @@
         <v>45351</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43068,7 +43068,7 @@
         <v>46027.599375</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>45642.47158564815</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>45706.36192129629</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>46066.67835648148</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45734</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43358,7 +43358,7 @@
         <v>46071.57190972222</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43415,7 +43415,7 @@
         <v>46071.49119212963</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43472,7 +43472,7 @@
         <v>46029.43753472222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43529,7 +43529,7 @@
         <v>45435.77655092593</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>46029.70104166667</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45224</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>46029.43957175926</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45211.81873842593</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>46069</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43886,7 +43886,7 @@
         <v>46029.70577546296</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43943,7 +43943,7 @@
         <v>45154.57079861111</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44000,7 +44000,7 @@
         <v>45162</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44057,7 +44057,7 @@
         <v>46071.61009259259</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>46071.61412037037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>45547.62819444444</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>45164</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44285,7 +44285,7 @@
         <v>45596.54981481482</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44342,7 +44342,7 @@
         <v>45615</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44399,7 +44399,7 @@
         <v>46031.37173611111</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>46071.55189814815</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>46030.43436342593</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45375</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>45597.35365740741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>44354</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45454.73629629629</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>46031.71200231482</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>45404.56375</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>45709.38748842593</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45046,7 +45046,7 @@
         <v>45709.42873842592</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45108,7 +45108,7 @@
         <v>46065.465625</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45165,7 +45165,7 @@
         <v>45476</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45222,7 +45222,7 @@
         <v>44592.72989583333</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45279,7 +45279,7 @@
         <v>45546.60894675926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45336,7 +45336,7 @@
         <v>45082</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45393,7 +45393,7 @@
         <v>45604.56190972222</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>45604.56427083333</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45517,7 +45517,7 @@
         <v>45604.56517361111</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45579,7 +45579,7 @@
         <v>44838</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45636,7 +45636,7 @@
         <v>45204</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         <v>45692.42515046296</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>45568</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45812,7 +45812,7 @@
         <v>45568</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>45091</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>45118</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>45005</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>45692</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>45705.35732638889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44994.45271990741</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44396</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>45219.44987268518</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46340,7 +46340,7 @@
         <v>45370.64554398148</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46397,7 +46397,7 @@
         <v>45434.56020833334</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46454,7 +46454,7 @@
         <v>45709.40761574074</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46516,7 +46516,7 @@
         <v>45770</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46573,7 +46573,7 @@
         <v>45223</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46630,7 +46630,7 @@
         <v>45372.49736111111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46687,7 +46687,7 @@
         <v>45547.62553240741</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46744,7 +46744,7 @@
         <v>45201.50586805555</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46801,7 +46801,7 @@
         <v>45184.46447916667</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46858,7 +46858,7 @@
         <v>45211</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46915,7 +46915,7 @@
         <v>44923</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46972,7 +46972,7 @@
         <v>45103</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47029,7 +47029,7 @@
         <v>45261</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>45204</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>45338</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44844.67142361111</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>45590.38761574074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>45218</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45028</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47443,7 +47443,7 @@
         <v>45105.48627314815</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45386.35322916666</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47562,7 +47562,7 @@
         <v>45688.58667824074</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47624,7 +47624,7 @@
         <v>45544.33987268519</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47681,7 +47681,7 @@
         <v>45155</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47738,7 +47738,7 @@
         <v>45749</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47800,7 +47800,7 @@
         <v>45709.32859953704</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>45354.72975694444</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45243</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>44844</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>44406</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>44908</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>45372.49458333333</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48209,7 +48209,7 @@
         <v>45196.47457175926</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>45755</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>44833</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48385,7 +48385,7 @@
         <v>45244.86136574074</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48442,7 +48442,7 @@
         <v>45063.27048611111</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48499,7 +48499,7 @@
         <v>45245.7939699074</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48556,7 +48556,7 @@
         <v>45692</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48613,7 +48613,7 @@
         <v>44260</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48670,7 +48670,7 @@
         <v>45597.34881944444</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48732,7 +48732,7 @@
         <v>45260.46252314815</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         <v>44592.50912037037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>44593</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45600.45402777778</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45230</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45075.50622685185</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49079,7 +49079,7 @@
         <v>45660</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49136,7 +49136,7 @@
         <v>45688</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45688.64506944444</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49260,7 +49260,7 @@
         <v>44939</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45692</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49374,7 +49374,7 @@
         <v>45702.36793981482</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49431,7 +49431,7 @@
         <v>45755</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49488,7 +49488,7 @@
         <v>45338</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49550,7 +49550,7 @@
         <v>44937</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49607,7 +49607,7 @@
         <v>44937.46436342593</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49664,7 +49664,7 @@
         <v>45195</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49721,7 +49721,7 @@
         <v>44361.93059027778</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49778,7 +49778,7 @@
         <v>45146</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45146</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45716.34958333334</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45460.82011574074</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45561.37106481481</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45764</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50130,7 +50130,7 @@
         <v>45764.84103009259</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>44593.63554398148</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45181</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50311,7 +50311,7 @@
         <v>45770.62311342593</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50368,7 +50368,7 @@
         <v>45674.38553240741</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>45279</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45153</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45244.67376157407</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>45154.56967592592</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45335.63689814815</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50720,7 +50720,7 @@
         <v>44998.55319444444</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50797,7 +50797,7 @@
         <v>45057</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50854,7 +50854,7 @@
         <v>45427.9417824074</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50911,7 +50911,7 @@
         <v>44610</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50968,7 +50968,7 @@
         <v>45649.6427662037</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51025,7 +51025,7 @@
         <v>44998</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51087,7 +51087,7 @@
         <v>45489.50666666667</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51144,7 +51144,7 @@
         <v>44496.58679398148</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51201,7 +51201,7 @@
         <v>45600.47440972222</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51258,7 +51258,7 @@
         <v>45709.33226851852</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51320,7 +51320,7 @@
         <v>45601</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51377,7 +51377,7 @@
         <v>45517.38890046296</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51434,7 +51434,7 @@
         <v>45273</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51491,7 +51491,7 @@
         <v>45391.59185185185</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51548,7 +51548,7 @@
         <v>45516.37174768518</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51605,7 +51605,7 @@
         <v>44526</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>45716.34217592593</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51729,7 +51729,7 @@
         <v>45716.34775462963</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51791,7 +51791,7 @@
         <v>45716.34298611111</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51853,7 +51853,7 @@
         <v>45783.47896990741</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51910,7 +51910,7 @@
         <v>45476.50758101852</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51967,7 +51967,7 @@
         <v>45502.49574074074</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45488.46717592593</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45786</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45604.44618055555</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45552.65006944445</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>45742</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>45783</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>45728.59358796296</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52428,7 +52428,7 @@
         <v>45720.40681712963</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52485,7 +52485,7 @@
         <v>45534</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52542,7 +52542,7 @@
         <v>45801.73608796296</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52599,7 +52599,7 @@
         <v>45801.7406712963</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52656,7 +52656,7 @@
         <v>45801.7155324074</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52713,7 +52713,7 @@
         <v>45800.6135300926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52770,7 +52770,7 @@
         <v>45804</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52827,7 +52827,7 @@
         <v>45805.59104166667</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52884,7 +52884,7 @@
         <v>45804.40983796296</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52941,7 +52941,7 @@
         <v>45804.49788194444</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52998,7 +52998,7 @@
         <v>45804</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45764</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45807.45759259259</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53174,7 +53174,7 @@
         <v>45764</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>45807.45905092593</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>45807.46021990741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53350,7 +53350,7 @@
         <v>45811.59519675926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>45709.39515046297</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>45709.40043981482</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>45709.39714120371</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>

--- a/Översikt UPPVIDINGE.xlsx
+++ b/Översikt UPPVIDINGE.xlsx
@@ -575,7 +575,7 @@
         <v>45174</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>46066</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44266</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45475</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45313</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45158</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45840.46792824074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>45604.4624537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45930</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>45195</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44455</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44859</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44833</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45517.34768518519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45404.55137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45604.48800925926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45826.4996875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44937</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>45889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45103</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45604.53089120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>46051</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44939</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>45450.57783564815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44295</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44375</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44827</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45623</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>45688.41431712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45820.48319444444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45825</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>44663</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45897</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>45926.56731481481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45931.6134837963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45941.46940972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45789.61961805556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45930</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44550</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>45982</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>46051.59083333334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45688.59202546296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>46066</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>46031.37709490741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44950</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44998</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44270.56321759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>44267.64171296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44320.42899305555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>44386</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>44386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44865.57608796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44887.42784722222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>44887.42950231482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>44307.45770833334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>44508</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44524.32766203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44613.65383101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44483.4240625</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44574.4577662037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44536</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44461.68690972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44456</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44734.36189814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44319.33803240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44812.51043981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44273</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44321</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44859</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>44574.45553240741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>44278</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44676.551875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44265.69087962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44859</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>44574.43967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44580</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44602.57726851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44859</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44308</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44430.93283564815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44795.48144675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44757.40570601852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44887.43138888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44588.6396875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44505</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44456</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44434</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44375</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44845</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44270.5584375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44364</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44552.45563657407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44503</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44483.66988425926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44483.67144675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44510</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44376</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44803.35861111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44887.42521990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44343.88627314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44610</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44375</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44795.60174768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>44795.60293981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44328.41473379629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44582</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>44757</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>44285.87041666666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44858.49122685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>44601.75174768519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>44711.38366898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44522.60883101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>44336.39239583333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>44253</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>44837.43361111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>44859</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>44607</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44607</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>44490.74336805556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>44887.42283564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>44887.42663194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>44676.56075231481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44250</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>44475.66188657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>44574</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44284</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44344.48678240741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44420.28219907408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44466</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44603</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44602</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44524.46141203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44690</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44424.57810185185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44721.32116898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44683.46200231482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44686</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44459</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44531</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44424.57476851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>44729.65407407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>44788.47552083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44705</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>44602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44592.48909722222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>45674.38413194445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45736.32997685186</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45736.33076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44922.50314814815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45229.58863425926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>45389</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>45338</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45338</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>45338.43358796297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45338</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45338</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45156.54523148148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44610</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45098.44975694444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45770.625625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44285.33586805555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44524</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45181</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44789.46129629629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44250</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45020</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45697.97704861111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>45384.42409722223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45398.79873842592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>45389.73820601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45642.47061342592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>45761.93627314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45428.54546296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45428.54791666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45118.36900462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45338</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45338.43268518519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45590.39090277778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>45089</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45664.57111111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>45622</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44430.29293981481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45668.63396990741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45604.26549768518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45320.58873842593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45544.36982638889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45348</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45714.37306712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44942.49850694444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>45408.61435185185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45693</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45226.45565972223</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45229</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>44757</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>45745.75537037037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45223.60331018519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>45749.46461805556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>45749.46740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>45233</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45335.63466435186</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44524</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44985</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45273.615</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45245.37445601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45153</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45471</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44278</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44566</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44459.56224537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45278.39707175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45692</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45348.33475694444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>45041.59671296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>45041</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44438</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44924.79619212963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>44392.68070601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45818</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45887.45643518519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45887.46554398148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45777.45011574074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44497</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45819.32747685185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45400</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45469.34783564815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45670.3792824074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45819.46775462963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45440.63173611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45338.43309027778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44902.79445601852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45622</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45540.56981481481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>45824.48737268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44924.77766203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>45825.40163194444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>45174.34193287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>45825.58365740741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45757.34662037037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45191</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>45889.37565972222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>45644.36364583333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>45889.36107638889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>45889.36693287037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>45825.46516203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45891.49476851852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45891.49868055555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>45826.49353009259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>45826.37920138889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>45826.50130787037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45826.50511574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>45831.36230324074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>45831.37613425926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45831.37420138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>45831</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>45831.5818287037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45894.59266203704</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44984</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>45757</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45832.47321759259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45897.44971064815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45459.71376157407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45428.5499537037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45369.42203703704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>45897</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45897.34547453704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>45897</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>45897.35350694445</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45082.56950231481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45901.44929398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45901.57252314815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45085.53467592593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44945.39559027777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>45604.56769675926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45898.39543981481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45230</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45835.37094907407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>45901.31172453704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>45901.55628472222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45385.44706018519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45901.31505787037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45835.48375</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45428.55199074074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45428.57160879629</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45840.66209490741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45902.78745370371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45567.53571759259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45838.67675925926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45902.56516203703</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45636.96761574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44734.3744212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44734.37710648148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45583.40994212963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45336.92125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44942.60704861111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45839.58087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45839</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>45838.6196875</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>45905.62797453703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45904.48038194444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>45677.70096064815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45164</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45831.51181712963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45230.37582175926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>45841.74796296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>45230</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45801.72324074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45840.479375</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45838.37465277778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45841.73791666667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45908.51197916667</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>45295</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45908.39239583333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>45910.50434027778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45840.49215277778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45107.61413194444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45910.6044212963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45910.6277662037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45910.63862268518</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45666</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45842.47915509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45842.55467592592</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45114.65185185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>45915.54190972223</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45915.54486111111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45163.72633101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44951</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>45770</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>45547.62391203704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>45547.62475694445</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>45763.68868055556</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45763.69137731481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45688.58755787037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45093</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>45854.62081018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44917.58131944444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45881.55119212963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>45428.54854166666</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45428.54914351852</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45428.58675925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>45861.43393518519</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>45716.3528125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>45922.34789351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>45923.58040509259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>45923.39356481482</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>45861.42532407407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>45923.71457175926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>45709.40560185185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>45923.37464120371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45923.70304398148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>45923.57438657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44984</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45842.48019675926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>45925.64894675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>45865</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>45865.66577546296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45865.67818287037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>45737</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>45792.81104166667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44638.34265046296</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>45839</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44865.54231481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>45839</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45926.34652777778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45506.60435185185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44603</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45869.39628472222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44503.58450231481</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45926.34913194444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45926.40893518519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45637.63881944444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44757.40538194445</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45930</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45552.6449537037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45552</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44994.45623842593</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45873</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45930</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45930</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         <v>45930</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45930</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45930</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45930</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45930</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>45930</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>45232.72258101852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>45933.58689814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>45877</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45459.71949074074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>45932.36827546296</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45933.41378472222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45881</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>45338</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45338</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45934.26534722222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45934.28383101852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45934.29163194444</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45934.27184027778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45934.27815972222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45934.28152777778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45219.79758101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45428.55619212963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45761.93880787037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>45428.53776620371</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>44276</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>45597.34225694444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45597.38799768518</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45597.39101851852</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44711.38688657407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45749</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44470</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45881.4566087963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45279.37215277777</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45349</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45939.49178240741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45887.5765625</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45338</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45538.80545138889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>45940.49800925926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44552.45428240741</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45389</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44757.40103009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44446</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45229.49331018519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>45688.43215277778</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>44602.51873842593</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>45729.67947916667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45945.46270833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>44659.58702546296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45013</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45385.49137731481</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>45112.3402199074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45685.55012731482</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45208.64244212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44971.76994212963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44971.75834490741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45579</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45211</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45205.35776620371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>44533.35804398148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45455</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>45091</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>45604.5687962963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44881.54231481482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>45709.39251157407</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45951.4234375</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45728</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45229.53780092593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45952.41342592592</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45764</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>45225</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>45679.50844907408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>45952.73761574074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>45317</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>45041</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45320.88226851852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>45146</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45957.3540162037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45957.37876157407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45357.39202546296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45909</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45716.33921296296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30761,7 +30761,7 @@
         <v>45716.35056712963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45341.58440972222</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45233</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45930</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>45930</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45960.66931712963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45118</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45169.38462962963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45960.64586805556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45720.41747685185</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45273.60899305555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>45273</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44887</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45204</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45085</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44410</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>44882</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45407.5766087963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>45154.65458333334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31874,7 +31874,7 @@
         <v>45530.36846064815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31931,7 +31931,7 @@
         <v>45607.37846064815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>45967.45761574074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32045,7 +32045,7 @@
         <v>45012</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32102,7 +32102,7 @@
         <v>45968.29605324074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44375</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>45642</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>45324.40112268519</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44946</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>45204.42494212963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>45971.68423611111</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45085</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45428.57578703704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45972.43155092592</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>45604.48289351852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45369.44256944444</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45973.51638888889</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45972</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45973.32503472222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44599</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45974.34333333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44595.55912037037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44757.39927083333</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44757.40454861111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45979.44793981482</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45979.44890046296</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45979.43940972222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45001</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45264.6516087963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45561.3744212963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45722.40604166667</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45604.56101851852</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>45604.56623842593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45604.56958333333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45288.46611111111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45981.58539351852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45764.67251157408</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45981.60552083333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>45981.60769675926</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>45981.60837962963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45981.58383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45981.58982638889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45747</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45981.59340277778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34457,7 +34457,7 @@
         <v>45747</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>45982.49903935185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>45190.39688657408</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>45427.93607638889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>45428.55946759259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>45985.39280092593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34799,7 +34799,7 @@
         <v>45985.63768518518</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34856,7 +34856,7 @@
         <v>45146</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34913,7 +34913,7 @@
         <v>44524.66444444445</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45985.390625</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45428.5703587963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45428.57371527778</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>45941.47780092592</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45987.56385416666</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45973.31868055555</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>45009</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>45989.47579861111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45941.47877314815</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45275.35230324074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45989.37517361111</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45988.67298611111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45366</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35721,7 +35721,7 @@
         <v>45708.35037037037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>45709.40309027778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>45973.32129629629</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>44697</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44897.42872685185</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>45607.60341435186</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>45597.38953703704</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45960.64515046297</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45597.3521412037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>46034.46232638889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36316,7 +36316,7 @@
         <v>46033.95969907408</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36373,7 +36373,7 @@
         <v>45960.6469212963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45995.67541666667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44915.41944444444</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45320</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>45454.73359953704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>45590</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>45995.59886574074</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>45775.49840277778</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>45057</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36953,7 +36953,7 @@
         <v>45995</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>45995.31268518518</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45610.35752314814</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45999.6527199074</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45404</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45165.77501157407</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>46040.75733796296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45336</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45996.51903935185</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45722.96171296296</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45755.41075231481</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45568</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45995</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>45391.58608796296</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>44400</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37818,7 +37818,7 @@
         <v>46000.85388888889</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37875,7 +37875,7 @@
         <v>45475</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>46000.85453703703</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45639.59918981481</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38046,7 +38046,7 @@
         <v>45642.46802083333</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>46041.77224537037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>45688.63835648148</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38227,7 +38227,7 @@
         <v>45709.38243055555</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38289,7 +38289,7 @@
         <v>44308</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>46001.64959490741</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38403,7 +38403,7 @@
         <v>44523.4103587963</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38460,7 +38460,7 @@
         <v>45279.61047453704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>44327</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38574,7 +38574,7 @@
         <v>46045.45460648148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38631,7 +38631,7 @@
         <v>46002.56247685185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>46002.33796296296</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45069.69295138889</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>45440.6484375</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>46002.55832175926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>45181</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>45389.74396990741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>46006.58917824074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>45190.47119212963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>45764</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45575.84530092592</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>46007.4960300926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>46048.55508101852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>46048.55671296296</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>44468.65578703704</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>44468.68219907407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>46009.70887731481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>46009.70274305555</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45709.42712962963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>45098</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>46009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39858,7 +39858,7 @@
         <v>46050.62579861111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45019</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46052.57960648148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46052.35818287037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40096,7 +40096,7 @@
         <v>46052.33907407407</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>46052.31791666667</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>46010</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>46055.45271990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45140</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>46013.52415509259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>46050.67314814815</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>46052.32192129629</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>46013.51875</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>45769.41568287037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46052.35028935185</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>46052.36130787037</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44369.46261574074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44496</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>45155</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45506.59847222222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>45350</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45348</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>46057.71226851852</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41214,7 +41214,7 @@
         <v>45434.44790509259</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41271,7 +41271,7 @@
         <v>44552.46184027778</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45629.38060185185</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41390,7 +41390,7 @@
         <v>44971.76626157408</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41447,7 +41447,7 @@
         <v>46058.41280092593</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>46058.59554398148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>44757.40493055555</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>46058.40996527778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45049</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45140</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45308</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45691.56284722222</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>46062.65396990741</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45105.47802083333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45474.36921296296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42089,7 +42089,7 @@
         <v>45093.34891203704</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         <v>45595.77847222222</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42203,7 +42203,7 @@
         <v>45174</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42260,7 +42260,7 @@
         <v>46065.45155092593</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42317,7 +42317,7 @@
         <v>45547.6262037037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42374,7 +42374,7 @@
         <v>45547.62703703704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42431,7 +42431,7 @@
         <v>46065.43212962963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42488,7 +42488,7 @@
         <v>45355.56142361111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42545,7 +42545,7 @@
         <v>45400</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42607,7 +42607,7 @@
         <v>45149</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42664,7 +42664,7 @@
         <v>46027.59738425926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42721,7 +42721,7 @@
         <v>45615</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42778,7 +42778,7 @@
         <v>45085</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42835,7 +42835,7 @@
         <v>45113.36457175926</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45117</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42949,7 +42949,7 @@
         <v>45579</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43011,7 +43011,7 @@
         <v>45351</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43068,7 +43068,7 @@
         <v>46027.599375</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>45642.47158564815</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>45706.36192129629</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>46066.67835648148</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45734</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43358,7 +43358,7 @@
         <v>46071.57190972222</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43415,7 +43415,7 @@
         <v>46071.49119212963</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43472,7 +43472,7 @@
         <v>46029.43753472222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43529,7 +43529,7 @@
         <v>45435.77655092593</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>46029.70104166667</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45224</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>46029.43957175926</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45211.81873842593</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>46069</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43886,7 +43886,7 @@
         <v>46029.70577546296</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43943,7 +43943,7 @@
         <v>45154.57079861111</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44000,7 +44000,7 @@
         <v>45162</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44057,7 +44057,7 @@
         <v>46071.61009259259</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>46071.61412037037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>45547.62819444444</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>45164</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44285,7 +44285,7 @@
         <v>45596.54981481482</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44342,7 +44342,7 @@
         <v>45615</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44399,7 +44399,7 @@
         <v>46031.37173611111</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>46071.55189814815</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>46030.43436342593</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45375</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>45597.35365740741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>44354</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45454.73629629629</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>46031.71200231482</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44858</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>45404.56375</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44984,7 +44984,7 @@
         <v>45709.38748842593</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45046,7 +45046,7 @@
         <v>45709.42873842592</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45108,7 +45108,7 @@
         <v>46065.465625</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45165,7 +45165,7 @@
         <v>45476</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45222,7 +45222,7 @@
         <v>44592.72989583333</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45279,7 +45279,7 @@
         <v>45546.60894675926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45336,7 +45336,7 @@
         <v>45082</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45393,7 +45393,7 @@
         <v>45604.56190972222</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>45604.56427083333</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45517,7 +45517,7 @@
         <v>45604.56517361111</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45579,7 +45579,7 @@
         <v>44838</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45636,7 +45636,7 @@
         <v>45204</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         <v>45692.42515046296</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>45568</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45812,7 +45812,7 @@
         <v>45568</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>45091</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>45118</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>45005</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>45692</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>45705.35732638889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44994.45271990741</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>44396</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>45219.44987268518</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46340,7 +46340,7 @@
         <v>45370.64554398148</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46397,7 +46397,7 @@
         <v>45434.56020833334</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46454,7 +46454,7 @@
         <v>45709.40761574074</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46516,7 +46516,7 @@
         <v>45770</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46573,7 +46573,7 @@
         <v>45223</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46630,7 +46630,7 @@
         <v>45372.49736111111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46687,7 +46687,7 @@
         <v>45547.62553240741</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46744,7 +46744,7 @@
         <v>45201.50586805555</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46801,7 +46801,7 @@
         <v>45184.46447916667</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46858,7 +46858,7 @@
         <v>45211</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46915,7 +46915,7 @@
         <v>44923</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46972,7 +46972,7 @@
         <v>45103</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47029,7 +47029,7 @@
         <v>45261</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>45204</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>45338</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44844.67142361111</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>45590.38761574074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>45218</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45028</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47443,7 +47443,7 @@
         <v>45105.48627314815</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45386.35322916666</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47562,7 +47562,7 @@
         <v>45688.58667824074</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47624,7 +47624,7 @@
         <v>45544.33987268519</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47681,7 +47681,7 @@
         <v>45155</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47738,7 +47738,7 @@
         <v>45749</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47800,7 +47800,7 @@
         <v>45709.32859953704</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>45354.72975694444</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45243</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>44844</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>44406</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>44908</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>45372.49458333333</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48209,7 +48209,7 @@
         <v>45196.47457175926</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>45755</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>44833</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48385,7 +48385,7 @@
         <v>45244.86136574074</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48442,7 +48442,7 @@
         <v>45063.27048611111</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48499,7 +48499,7 @@
         <v>45245.7939699074</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48556,7 +48556,7 @@
         <v>45692</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48613,7 +48613,7 @@
         <v>44260</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48670,7 +48670,7 @@
         <v>45597.34881944444</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48732,7 +48732,7 @@
         <v>45260.46252314815</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         <v>44592.50912037037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>44593</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45600.45402777778</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>45230</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>45075.50622685185</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49079,7 +49079,7 @@
         <v>45660</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49136,7 +49136,7 @@
         <v>45688</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45688.64506944444</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49260,7 +49260,7 @@
         <v>44939</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45692</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49374,7 +49374,7 @@
         <v>45702.36793981482</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49431,7 +49431,7 @@
         <v>45755</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49488,7 +49488,7 @@
         <v>45338</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49550,7 +49550,7 @@
         <v>44937</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49607,7 +49607,7 @@
         <v>44937.46436342593</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49664,7 +49664,7 @@
         <v>45195</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49721,7 +49721,7 @@
         <v>44361.93059027778</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49778,7 +49778,7 @@
         <v>45146</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45146</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45716.34958333334</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49954,7 +49954,7 @@
         <v>45460.82011574074</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50011,7 +50011,7 @@
         <v>45561.37106481481</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45764</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50130,7 +50130,7 @@
         <v>45764.84103009259</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>44593.63554398148</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45181</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50311,7 +50311,7 @@
         <v>45770.62311342593</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50368,7 +50368,7 @@
         <v>45674.38553240741</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>45279</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45153</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45244.67376157407</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>45154.56967592592</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45335.63689814815</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50720,7 +50720,7 @@
         <v>44998.55319444444</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50797,7 +50797,7 @@
         <v>45057</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50854,7 +50854,7 @@
         <v>45427.9417824074</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50911,7 +50911,7 @@
         <v>44610</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50968,7 +50968,7 @@
         <v>45649.6427662037</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51025,7 +51025,7 @@
         <v>44998</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51087,7 +51087,7 @@
         <v>45489.50666666667</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51144,7 +51144,7 @@
         <v>44496.58679398148</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51201,7 +51201,7 @@
         <v>45600.47440972222</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51258,7 +51258,7 @@
         <v>45709.33226851852</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51320,7 +51320,7 @@
         <v>45601</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51377,7 +51377,7 @@
         <v>45517.38890046296</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51434,7 +51434,7 @@
         <v>45273</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51491,7 +51491,7 @@
         <v>45391.59185185185</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51548,7 +51548,7 @@
         <v>45516.37174768518</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51605,7 +51605,7 @@
         <v>44526</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>45716.34217592593</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51729,7 +51729,7 @@
         <v>45716.34775462963</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51791,7 +51791,7 @@
         <v>45716.34298611111</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51853,7 +51853,7 @@
         <v>45783.47896990741</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51910,7 +51910,7 @@
         <v>45476.50758101852</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51967,7 +51967,7 @@
         <v>45502.49574074074</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45488.46717592593</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45786</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45604.44618055555</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45552.65006944445</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>45742</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>45783</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>45728.59358796296</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52428,7 +52428,7 @@
         <v>45720.40681712963</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52485,7 +52485,7 @@
         <v>45534</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52542,7 +52542,7 @@
         <v>45801.73608796296</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52599,7 +52599,7 @@
         <v>45801.7406712963</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52656,7 +52656,7 @@
         <v>45801.7155324074</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52713,7 +52713,7 @@
         <v>45800.6135300926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52770,7 +52770,7 @@
         <v>45804</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52827,7 +52827,7 @@
         <v>45805.59104166667</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52884,7 +52884,7 @@
         <v>45804.40983796296</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52941,7 +52941,7 @@
         <v>45804.49788194444</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52998,7 +52998,7 @@
         <v>45804</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45764</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45807.45759259259</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53174,7 +53174,7 @@
         <v>45764</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>45807.45905092593</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>45807.46021990741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53350,7 +53350,7 @@
         <v>45811.59519675926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>45709.39515046297</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>45709.40043981482</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>45709.39714120371</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
